--- a/Mifos Automation Excels/Client/3125-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/3125-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Makerepayment2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="758" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="758"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="51">
   <si>
     <t>#</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>$ 887.72</t>
+  </si>
+  <si>
+    <t>repaymenttransactionamount</t>
   </si>
 </sst>
 </file>
@@ -277,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -313,6 +316,7 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,6 +644,14 @@
       </c>
       <c r="B2" s="13">
         <v>42064</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="17">
+        <v>987.72</v>
       </c>
     </row>
   </sheetData>
@@ -774,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,16 +911,16 @@
         <v>50.96</v>
       </c>
       <c r="I3" s="6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J3" s="6">
         <v>0</v>
       </c>
       <c r="K3" s="6">
-        <v>987.72</v>
+        <v>937.72</v>
       </c>
       <c r="L3" s="6">
-        <v>987.72</v>
+        <v>937.72</v>
       </c>
       <c r="M3" s="6">
         <v>0</v>
@@ -2028,7 +2040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/3125-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/3125-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Makerepayment2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="758"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="758" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="56">
   <si>
     <t>#</t>
   </si>
@@ -158,12 +158,6 @@
     <t>$ 50.96</t>
   </si>
   <si>
-    <t>$ 100</t>
-  </si>
-  <si>
-    <t>$ 987.72</t>
-  </si>
-  <si>
     <t>$ 849.4</t>
   </si>
   <si>
@@ -174,6 +168,27 @@
   </si>
   <si>
     <t>repaymenttransactionamount</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Transaction Type</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Principal</t>
+  </si>
+  <si>
+    <t>Loan Balance</t>
+  </si>
+  <si>
+    <t>$ 937.72</t>
+  </si>
+  <si>
+    <t>$ 50</t>
   </si>
 </sst>
 </file>
@@ -620,7 +635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
@@ -648,7 +663,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" s="17">
         <v>987.72</v>
@@ -661,10 +676,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,7 +693,7 @@
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -698,7 +713,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>10000</v>
       </c>
@@ -715,8 +730,9 @@
       <c r="F2" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>551.74</v>
       </c>
@@ -736,12 +752,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B4" s="6">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C4" s="6">
         <v>0</v>
@@ -750,13 +766,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F4" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>0</v>
       </c>
@@ -786,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,16 +999,16 @@
         <v>38.32</v>
       </c>
       <c r="I5" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J5" s="6">
         <v>0</v>
       </c>
       <c r="K5" s="6">
-        <v>987.72</v>
+        <v>887.72</v>
       </c>
       <c r="L5" s="6">
-        <v>987.72</v>
+        <v>887.72</v>
       </c>
       <c r="M5" s="6">
         <v>0</v>
@@ -1026,13 +1042,13 @@
         <v>84.73</v>
       </c>
       <c r="I6" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J6" s="6">
         <v>0</v>
       </c>
       <c r="K6" s="6">
-        <v>887.72</v>
+        <v>987.72</v>
       </c>
       <c r="L6" s="6">
         <v>0</v>
@@ -1044,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6">
-        <v>887.72</v>
+        <v>987.72</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1442,10 +1458,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,208 +1480,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="6">
-        <v>110</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="7">
-        <v>42036</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="6">
-        <v>987.72</v>
-      </c>
-      <c r="F1" s="6">
-        <v>836.76</v>
-      </c>
-      <c r="G1" s="6">
-        <v>50.96</v>
-      </c>
-      <c r="H1" s="6">
-        <v>100</v>
-      </c>
-      <c r="I1" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1" s="9">
-        <v>4163.24</v>
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="7">
-        <v>42005</v>
+        <v>42064</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="6">
+        <v>887.72</v>
+      </c>
+      <c r="F2" s="6">
+        <v>849.4</v>
+      </c>
+      <c r="G2" s="6">
+        <v>38.32</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9">
+        <v>8313.84</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>56</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="7">
+        <v>42064</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E3" s="8">
         <v>5000</v>
       </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8">
-        <v>5000</v>
-      </c>
-      <c r="K2"/>
-      <c r="L2"/>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>9163.24</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>54</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7">
+        <v>42036</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="6">
+        <v>937.72</v>
+      </c>
+      <c r="F4" s="6">
+        <v>836.76</v>
+      </c>
+      <c r="G4" s="6">
+        <v>50.96</v>
+      </c>
+      <c r="H4" s="6">
+        <v>50</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>4163.24</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="7">
-        <v>42064</v>
+        <v>42005</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="6">
-        <v>987.72</v>
+        <v>15</v>
+      </c>
+      <c r="E5" s="8">
+        <v>5000</v>
       </c>
       <c r="F5" s="6">
-        <v>849.4</v>
+        <v>0</v>
       </c>
       <c r="G5" s="6">
-        <v>38.32</v>
+        <v>0</v>
       </c>
       <c r="H5" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I5" s="6">
         <v>0</v>
       </c>
-      <c r="J5" s="9">
-        <v>8313.84</v>
-      </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>112</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="7">
-        <v>42064</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="J5" s="8">
         <v>5000</v>
       </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
-        <v>9163.24</v>
-      </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>110</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="7">
-        <v>42036</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="6">
-        <v>987.72</v>
-      </c>
-      <c r="F7" s="6">
-        <v>836.76</v>
-      </c>
-      <c r="G7" s="6">
-        <v>50.96</v>
-      </c>
-      <c r="H7" s="6">
-        <v>100</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
-        <v>4163.24</v>
-      </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>106</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="7">
-        <v>42005</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="8">
-        <v>5000</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
-        <v>5000</v>
-      </c>
-      <c r="K8"/>
-      <c r="L8"/>
+      <c r="K5"/>
+      <c r="L5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1775,7 +1757,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1894,7 +1876,7 @@
         <v>37</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1920,7 +1902,7 @@
         <v>32</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1932,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2041,7 +2023,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2110,7 +2092,7 @@
         <v>33</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2136,7 +2118,7 @@
         <v>36</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2162,7 +2144,7 @@
         <v>32</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Client/3125-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/3125-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Makerepayment2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="758" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="758" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -679,7 +679,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A7" sqref="A7:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,7 +803,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,7 +1461,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>59</v>
+        <v>218</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>22</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>56</v>
+        <v>215</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>22</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>50</v>
+        <v>209</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>22</v>
@@ -1914,7 +1914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2022,7 +2022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/3125-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/3125-MS-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Makerepayment2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="758" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="758" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -800,10 +800,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,12 +821,13 @@
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -866,17 +867,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -901,9 +903,10 @@
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O2" s="6"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -941,14 +944,15 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7">
@@ -973,9 +977,10 @@
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
-      <c r="P4" s="6"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O4" s="6"/>
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1013,14 +1018,15 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -1056,14 +1062,15 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <v>987.72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -1099,14 +1106,15 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -1142,14 +1150,15 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -1185,14 +1194,15 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
+      <c r="N9" s="6"/>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -1228,14 +1238,15 @@
       <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
+      <c r="N10" s="6"/>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -1271,14 +1282,15 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
+      <c r="N11" s="6"/>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -1314,14 +1326,15 @@
       <c r="M12" s="6">
         <v>0</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
+      <c r="N12" s="6"/>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -1357,14 +1370,15 @@
       <c r="M13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -1400,14 +1414,15 @@
       <c r="M14" s="6">
         <v>0</v>
       </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
+      <c r="N14" s="6"/>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -1443,10 +1458,11 @@
       <c r="M15" s="6">
         <v>0</v>
       </c>
-      <c r="N15" s="6">
-        <v>0</v>
-      </c>
-      <c r="P15" s="6">
+      <c r="N15" s="6"/>
+      <c r="O15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="6">
         <v>786.82</v>
       </c>
     </row>
@@ -2022,7 +2038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
